--- a/finmath/seminar3.xlsx
+++ b/finmath/seminar3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Задача 1. Аналитик собрал статистику за 36 прошедших месяцев, согласно которой вложение в акцию компании АВС позволило за месяц заработать 15% в 1 случае из 36 проанализированных месяцев, 10% - в 2 случаях, 5% - в 3 случаях, 0% в 23 случаях, потерять 5% в 6 случаях, и потерять 10% в оставшихся случаях. Определить ожидаемое значение доходности инвестиции. </t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t xml:space="preserve">Задача 2. Инвестиционный фонд за 7 предыдущих лет заработал следующие годовые доходности: +5%; -2%; +12%; +7%; -4%; +11%; +9%. Если предположить, что в среднем фонд будет зарабатывать такую же доходность, как и по итогам прошедших 7 лет (в смысле геометрической доходности), и вложить $100 тыс. в этот фонд, то какой ожидаемый результат будет через 5 лет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вклад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">срок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">результат без капитализации</t>
   </si>
   <si>
     <t xml:space="preserve">Задача 3. В инвестиционном анализе есть т.н. показатель Шарпа, который характеризует эффективность инвестиции в фонд. Он рассчитывается как отношение средней доходности к риску (волатильности). Рассчитайте этот коэффициент для условий задачи 2.</t>
@@ -88,11 +100,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -177,16 +190,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,7 +207,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,31 +223,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,22 +313,22 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false">36-SUM(B4:F4)</f>
         <v>1</v>
       </c>
@@ -320,104 +337,98 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>-0.05</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <f aca="false">B4/36*B5</f>
         <v>0.00416666666666667</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">C4/36*C5</f>
         <v>0.00555555555555556</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">D4/36*D5</f>
         <v>0.00416666666666667</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <f aca="false">E4/36*E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <f aca="false">F4/36*F5</f>
         <v>-0.00833333333333333</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <f aca="false">G4/36*G5</f>
         <v>-0.00277777777777778</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <f aca="false">SUM(B6:G6)</f>
         <v>0.00277777777777778</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -444,78 +455,105 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <f aca="false">((1+5%)*(1-2%)*(1+12%)*(1+7%)*(1-4%)*(1+11%)*(1+9%))^(1/7) - 1</f>
+        <v>0.0526672858634858</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <f aca="false">B4+(B4*B3)*B5</f>
+        <v>126333.642931743</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -545,75 +583,75 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -644,7 +682,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -655,115 +693,115 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
+      <c r="A3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
+      <c r="A5" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>11</v>
+      <c r="A7" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <f aca="false">0.3*0.01+0.5*0.03+0.2*0.1</f>
         <v>0.038</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="n">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16" t="n">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="n">
         <f aca="false">B6*B10/B8</f>
         <v>0.0789473684210526</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -793,88 +831,88 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/finmath/seminar3.xlsx
+++ b/finmath/seminar3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Задача 1. Аналитик собрал статистику за 36 прошедших месяцев, согласно которой вложение в акцию компании АВС позволило за месяц заработать 15% в 1 случае из 36 проанализированных месяцев, 10% - в 2 случаях, 5% - в 3 случаях, 0% в 23 случаях, потерять 5% в 6 случаях, и потерять 10% в оставшихся случаях. Определить ожидаемое значение доходности инвестиции. </t>
   </si>
@@ -56,7 +56,22 @@
     <t xml:space="preserve">результат без капитализации</t>
   </si>
   <si>
+    <t xml:space="preserve">результат с капитализацией</t>
+  </si>
+  <si>
     <t xml:space="preserve">Задача 3. В инвестиционном анализе есть т.н. показатель Шарпа, который характеризует эффективность инвестиции в фонд. Он рассчитывается как отношение средней доходности к риску (волатильности). Рассчитайте этот коэффициент для условий задачи 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">волатильность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коэфф Шарпа</t>
   </si>
   <si>
     <t xml:space="preserve">Задача 4. Компания по страхованию автомобилей разделяет водителей по трем категориям в зависимости от опыта: категория 1 (стаж вождения более 10 лет), категория 2 (стаж более 2 лет, но меньше 10), категория 3 (стаж менее 2 лет). Для данной компании среди 100% застрахованных 30% принадлежат категории 1, 50% – категории 2, 20% – категории 3. Вероятность того, что в течение года водитель категории 1 попадет хотя бы в одно ДТП равна 1%; для водителя категории 2 - 3%, а для водителя категории 3 – 10%. Клиент компании застраховал автомобиль и попал в ДТП. Какова вероятность того, что он относится к категории 1? </t>
@@ -95,17 +110,27 @@
 Цена ресурса, $ 115,0 119,0 121,0 130,0 131,0 150,0 155,0 172,0 174,0 168,0 161,0 159,0
 И предположил, что цена акции зависит от цены ресурса с задержкой на 1 месяц. Определить уравнение регрессии для этого предположения и сделать на его основе прогноз цены акции на 13 месяц.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена акции, $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена ресурса, $</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -190,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +264,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,12 +276,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -454,13 +483,13 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="15.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -482,7 +511,7 @@
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="5" t="n">
         <f aca="false">((1+5%)*(1-2%)*(1+12%)*(1+7%)*(1-4%)*(1+11%)*(1+9%))^(1/7) - 1</f>
         <v>0.0526672858634858</v>
       </c>
@@ -491,23 +520,23 @@
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="13" t="n">
         <f aca="false">B4+(B4*B3)*B5</f>
         <v>126333.642931743</v>
       </c>
@@ -518,9 +547,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <f aca="false">B4*(1+B3)^B5</f>
+        <v>129257.464339987</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -529,7 +563,6 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -539,7 +572,6 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -549,11 +581,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
       <c r="B10" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -574,17 +605,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -598,14 +632,74 @@
       <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <f aca="false">_xlfn.STDEV.S(B4:H4 )</f>
+        <v>0.0624118425880705</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <f aca="false">'2'!B3/B5</f>
+        <v>0.843866863715263</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -648,11 +742,12 @@
       <c r="B10" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-    </row>
+      <c r="A13" s="14"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -682,7 +777,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -697,7 +792,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,12 +800,12 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.3</v>
@@ -718,12 +813,12 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="n">
         <f aca="false">0.3*0.01+0.5*0.03+0.2*0.1</f>
@@ -732,7 +827,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -743,7 +838,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0.01</v>
@@ -765,13 +860,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17" t="n">
         <f aca="false">B6*B10/B8</f>
@@ -801,7 +896,7 @@
       <c r="B16" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -822,17 +917,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.1"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -846,13 +944,127 @@
       <c r="A2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="e">
+        <f aca="false" t="array" ref="A6:A6">LINEST(B4:M5,B4:M5)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -912,7 +1124,7 @@
       <c r="B14" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
